--- a/apartment_test.xlsx
+++ b/apartment_test.xlsx
@@ -55,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,22 +63,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
@@ -93,9 +84,8 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -116,39 +106,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,142 +217,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -388,16 +402,16 @@
   </cols>
   <sheetData>
     <row spans="1:6" r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="n" s="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
         <v>12</v>
       </c>
-      <c r="C1" t="n" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s" s="1">
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="n">
@@ -408,16 +422,16 @@
       </c>
     </row>
     <row spans="1:6" r="2">
-      <c r="A2" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n" s="1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
         <v>12</v>
       </c>
-      <c r="C2" t="n" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s" s="1">
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="n">
@@ -428,16 +442,16 @@
       </c>
     </row>
     <row spans="1:6" r="3">
-      <c r="A3" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n" s="1">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
         <v>138</v>
       </c>
-      <c r="C3" t="n" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s" s="1">
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="n">
@@ -448,16 +462,16 @@
       </c>
     </row>
     <row spans="1:6" r="4">
-      <c r="A4" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n" s="1">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
         <v>140</v>
       </c>
-      <c r="C4" t="n" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s" s="1">
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="n">
@@ -468,16 +482,16 @@
       </c>
     </row>
     <row spans="1:6" r="5">
-      <c r="A5" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n" s="1">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
         <v>141</v>
       </c>
-      <c r="C5" t="n" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s" s="1">
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="n">
@@ -488,36 +502,36 @@
       </c>
     </row>
     <row spans="1:6" r="6">
-      <c r="A6" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n" s="1">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
         <v>166</v>
       </c>
-      <c r="C6" t="n" s="1">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="s" s="1">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>37.4828707</v>
+        <v>37.4832436</v>
       </c>
       <c r="F6" t="n">
-        <v>127.0612704</v>
+        <v>127.0609174</v>
       </c>
     </row>
     <row spans="1:6" r="7">
-      <c r="A7" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n" s="1">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
         <v>177</v>
       </c>
-      <c r="C7" t="n" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s" s="1">
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="n">
@@ -528,16 +542,16 @@
       </c>
     </row>
     <row spans="1:6" r="8">
-      <c r="A8" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n" s="1">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
         <v>179</v>
       </c>
-      <c r="C8" t="n" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s" s="1">
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="n">
@@ -548,16 +562,16 @@
       </c>
     </row>
     <row spans="1:6" r="9">
-      <c r="A9" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n" s="1">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
         <v>185</v>
       </c>
-      <c r="C9" t="n" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s" s="1">
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="n">
@@ -568,16 +582,16 @@
       </c>
     </row>
     <row spans="1:6" r="10">
-      <c r="A10" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" t="n" s="1">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
         <v>185</v>
       </c>
-      <c r="C10" t="n" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s" s="1">
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="n">
@@ -588,8 +602,6 @@
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.30" right="0.30" top="0.61" bottom="0.37" header="0.10" footer="0.10"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
 </worksheet>
 </file>